--- a/medicine/Enfance/Isabelle_Maroger/Isabelle_Maroger.xlsx
+++ b/medicine/Enfance/Isabelle_Maroger/Isabelle_Maroger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Maroger, née en 1979 à Montpellier, est une autrice, illustratrice et dessinatrice française. Elle est principalement autrice et dessinatrice de BD mais elle illustre également des livres pour enfants et des livres pratiques. Elle travaille également pour la presse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Maroger est née d'un mère norvégienne et d'un père français[1]. Elle a fait ses études à l’école Émile-Cohl de Lyon[2], ville où elle vit toujours[3] et dans laquelle elle fait partie de l'atelier Le Bocal[4]. Depuis 2003[5], elle a illustré plus de deux cent ouvrages[6].
-En 2021, elle réalise une bande dessinée pour Oxfam France  sur la vaccination comme enjeu mondial[7].
-En 2024, elle publie Lebensborn[8] dans lequel elle revient sur l'histoire de sa mère, Katherine Maroger[9], née dans un lebensborn[10]. Cette dernière en faisait elle-même le récit dans son livre Les Racines du silence paru en 2008 aux éditions Anne Carrière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Maroger est née d'un mère norvégienne et d'un père français. Elle a fait ses études à l’école Émile-Cohl de Lyon, ville où elle vit toujours et dans laquelle elle fait partie de l'atelier Le Bocal. Depuis 2003, elle a illustré plus de deux cent ouvrages.
+En 2021, elle réalise une bande dessinée pour Oxfam France  sur la vaccination comme enjeu mondial.
+En 2024, elle publie Lebensborn dans lequel elle revient sur l'histoire de sa mère, Katherine Maroger, née dans un lebensborn. Cette dernière en faisait elle-même le récit dans son livre Les Racines du silence paru en 2008 aux éditions Anne Carrière.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Illustrations de livres jeunesse
 En avant les filles !, illustration d’un texte de Sandrine Mirza, Nathan, 2012.
